--- a/Open day poster/Project Data.xlsx
+++ b/Open day poster/Project Data.xlsx
@@ -451,26 +451,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
@@ -504,6 +504,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -569,6 +570,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -584,7 +586,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -615,6 +617,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -753,12 +756,12 @@
         <c:gapWidth val="55"/>
         <c:gapDepth val="55"/>
         <c:shape val="box"/>
-        <c:axId val="36204928"/>
-        <c:axId val="36206464"/>
+        <c:axId val="71306624"/>
+        <c:axId val="71308416"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="36204928"/>
+        <c:axId val="71306624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -775,14 +778,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36206464"/>
+        <c:crossAx val="71308416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="36206464"/>
+        <c:axId val="71308416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -801,13 +804,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36204928"/>
+        <c:crossAx val="71306624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -823,7 +827,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1010,12 +1014,12 @@
           </c:val>
         </c:ser>
         <c:shape val="box"/>
-        <c:axId val="36381440"/>
-        <c:axId val="36383360"/>
+        <c:axId val="71363200"/>
+        <c:axId val="71365376"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="36381440"/>
+        <c:axId val="71363200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1051,14 +1055,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36383360"/>
+        <c:crossAx val="71365376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="36383360"/>
+        <c:axId val="71365376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1094,7 +1098,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36381440"/>
+        <c:crossAx val="71363200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1117,7 +1121,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1306,12 +1310,12 @@
         <c:gapWidth val="55"/>
         <c:gapDepth val="55"/>
         <c:shape val="box"/>
-        <c:axId val="36456320"/>
-        <c:axId val="36457856"/>
+        <c:axId val="71391872"/>
+        <c:axId val="71397760"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="36456320"/>
+        <c:axId val="71391872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1328,14 +1332,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36457856"/>
+        <c:crossAx val="71397760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="36457856"/>
+        <c:axId val="71397760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1354,7 +1358,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36456320"/>
+        <c:crossAx val="71391872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1377,7 +1381,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1572,12 +1576,12 @@
           </c:val>
         </c:ser>
         <c:shape val="box"/>
-        <c:axId val="36493568"/>
-        <c:axId val="37032320"/>
+        <c:axId val="71505792"/>
+        <c:axId val="71516160"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="36493568"/>
+        <c:axId val="71505792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1613,14 +1617,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37032320"/>
+        <c:crossAx val="71516160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="37032320"/>
+        <c:axId val="71516160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1656,7 +1660,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36493568"/>
+        <c:crossAx val="71505792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1679,7 +1683,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1771,12 +1775,12 @@
           </c:val>
         </c:ser>
         <c:shape val="box"/>
-        <c:axId val="37051776"/>
-        <c:axId val="37086720"/>
+        <c:axId val="71558272"/>
+        <c:axId val="71560192"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="37051776"/>
+        <c:axId val="71558272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1812,14 +1816,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37086720"/>
+        <c:crossAx val="71560192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="37086720"/>
+        <c:axId val="71560192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1855,7 +1859,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37051776"/>
+        <c:crossAx val="71558272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1878,7 +1882,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2015,12 +2019,12 @@
         <c:gapWidth val="55"/>
         <c:gapDepth val="55"/>
         <c:shape val="box"/>
-        <c:axId val="37304576"/>
-        <c:axId val="37310464"/>
+        <c:axId val="71598464"/>
+        <c:axId val="71600000"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="37304576"/>
+        <c:axId val="71598464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2038,14 +2042,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37310464"/>
+        <c:crossAx val="71600000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="37310464"/>
+        <c:axId val="71600000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2064,7 +2068,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37304576"/>
+        <c:crossAx val="71598464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2087,7 +2091,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2214,7 +2218,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2241,6 +2245,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2309,6 +2314,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -2324,7 +2330,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2372,6 +2378,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2448,6 +2455,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -2463,7 +2471,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2498,6 +2506,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2563,6 +2572,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -2578,7 +2588,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2610,6 +2620,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2678,6 +2689,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -2693,7 +2705,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2737,8 +2749,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1224304461942257"/>
-          <c:y val="2.777777777777779E-2"/>
+          <c:x val="0.12243044619422569"/>
+          <c:y val="2.7777777777777801E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:title>
@@ -2809,6 +2821,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -2824,7 +2837,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2858,6 +2871,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -2910,12 +2924,12 @@
           </c:val>
         </c:ser>
         <c:shape val="box"/>
-        <c:axId val="36094336"/>
-        <c:axId val="36096256"/>
+        <c:axId val="71194880"/>
+        <c:axId val="71205248"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="36094336"/>
+        <c:axId val="71194880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2936,6 +2950,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2949,14 +2964,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36096256"/>
+        <c:crossAx val="71205248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="36096256"/>
+        <c:axId val="71205248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2978,6 +2993,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -2991,7 +3007,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36094336"/>
+        <c:crossAx val="71194880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3001,7 +3017,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3032,6 +3048,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -3092,12 +3109,12 @@
           </c:val>
         </c:ser>
         <c:shape val="box"/>
-        <c:axId val="36126720"/>
-        <c:axId val="36128640"/>
+        <c:axId val="71238784"/>
+        <c:axId val="71240704"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="36126720"/>
+        <c:axId val="71238784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3118,6 +3135,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3131,14 +3149,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36128640"/>
+        <c:crossAx val="71240704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="36128640"/>
+        <c:axId val="71240704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3160,6 +3178,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -3173,13 +3192,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36126720"/>
+        <c:crossAx val="71238784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3195,7 +3215,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3242,6 +3262,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -3338,12 +3359,12 @@
         <c:gapWidth val="55"/>
         <c:gapDepth val="55"/>
         <c:shape val="box"/>
-        <c:axId val="36155392"/>
-        <c:axId val="36156928"/>
+        <c:axId val="71266688"/>
+        <c:axId val="71268224"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="36155392"/>
+        <c:axId val="71266688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3360,14 +3381,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36156928"/>
+        <c:crossAx val="71268224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="36156928"/>
+        <c:axId val="71268224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3386,13 +3407,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36155392"/>
+        <c:crossAx val="71266688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3408,7 +3430,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4242,7 +4264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J273"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A253" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A86" workbookViewId="0">
       <selection activeCell="H256" sqref="H256"/>
     </sheetView>
   </sheetViews>
@@ -4300,26 +4322,26 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:8" ht="15.75">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="40"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="47"/>
-      <c r="H6" s="46"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="42"/>
     </row>
     <row r="7" spans="1:8" ht="45">
-      <c r="A7" s="41"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
       <c r="E7" s="25"/>
       <c r="F7" s="10" t="s">
         <v>6</v>
@@ -4332,12 +4354,12 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="12"/>
       <c r="F8" s="13">
         <v>2</v>
@@ -4350,12 +4372,12 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
       <c r="E9" s="15"/>
       <c r="F9" s="16">
         <v>0</v>
@@ -4630,30 +4652,30 @@
       <c r="H50" s="6"/>
     </row>
     <row r="51" spans="1:10" ht="15.75">
-      <c r="A51" s="43" t="s">
+      <c r="A51" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="44"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="45" t="s">
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="G51" s="46"/>
-      <c r="H51" s="45" t="s">
+      <c r="G51" s="42"/>
+      <c r="H51" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="I51" s="47"/>
-      <c r="J51" s="46"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="42"/>
     </row>
     <row r="52" spans="1:10" ht="45">
-      <c r="A52" s="41"/>
-      <c r="B52" s="42"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="41"/>
+      <c r="A52" s="43"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="43"/>
       <c r="G52" s="48"/>
       <c r="H52" s="10" t="s">
         <v>6</v>
@@ -4666,13 +4688,13 @@
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="39" t="s">
+      <c r="A53" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="40"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
       <c r="F53" s="12">
         <v>2</v>
       </c>
@@ -4688,13 +4710,13 @@
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="37" t="s">
+      <c r="A54" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="38"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="38"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="47"/>
       <c r="F54" s="15">
         <v>2</v>
       </c>
@@ -4725,13 +4747,13 @@
       </c>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="39" t="s">
+      <c r="A56" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B56" s="40"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="40"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="39"/>
       <c r="F56" s="12">
         <v>1</v>
       </c>
@@ -4747,13 +4769,13 @@
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="39" t="s">
+      <c r="A57" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="B57" s="40"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="40"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="39"/>
       <c r="F57" s="12">
         <v>2</v>
       </c>
@@ -4769,13 +4791,13 @@
       </c>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="39" t="s">
+      <c r="A58" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="B58" s="40"/>
-      <c r="C58" s="40"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="40"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="39"/>
       <c r="F58" s="12">
         <v>0</v>
       </c>
@@ -4961,13 +4983,13 @@
       </c>
     </row>
     <row r="95" spans="1:9" ht="45">
-      <c r="A95" s="41" t="s">
+      <c r="A95" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="B95" s="42"/>
-      <c r="C95" s="42"/>
-      <c r="D95" s="42"/>
-      <c r="E95" s="42"/>
+      <c r="B95" s="44"/>
+      <c r="C95" s="44"/>
+      <c r="D95" s="44"/>
+      <c r="E95" s="44"/>
       <c r="F95" s="10" t="s">
         <v>6</v>
       </c>
@@ -4979,13 +5001,13 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="39" t="s">
+      <c r="A96" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B96" s="40"/>
-      <c r="C96" s="40"/>
-      <c r="D96" s="40"/>
-      <c r="E96" s="40"/>
+      <c r="B96" s="39"/>
+      <c r="C96" s="39"/>
+      <c r="D96" s="39"/>
+      <c r="E96" s="39"/>
       <c r="F96" s="13">
         <v>2</v>
       </c>
@@ -4997,13 +5019,13 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="37" t="s">
+      <c r="A97" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B97" s="38"/>
-      <c r="C97" s="38"/>
-      <c r="D97" s="38"/>
-      <c r="E97" s="38"/>
+      <c r="B97" s="47"/>
+      <c r="C97" s="47"/>
+      <c r="D97" s="47"/>
+      <c r="E97" s="47"/>
       <c r="F97" s="16">
         <v>1</v>
       </c>
@@ -5024,12 +5046,12 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="39" t="s">
+      <c r="A99" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B99" s="40"/>
-      <c r="C99" s="40"/>
-      <c r="D99" s="40"/>
+      <c r="B99" s="39"/>
+      <c r="C99" s="39"/>
+      <c r="D99" s="39"/>
       <c r="E99" s="12"/>
       <c r="F99" s="13">
         <v>2</v>
@@ -5042,12 +5064,12 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="37" t="s">
+      <c r="A100" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B100" s="38"/>
-      <c r="C100" s="38"/>
-      <c r="D100" s="38"/>
+      <c r="B100" s="47"/>
+      <c r="C100" s="47"/>
+      <c r="D100" s="47"/>
       <c r="E100" s="15"/>
       <c r="F100" s="16">
         <v>0</v>
@@ -5070,13 +5092,13 @@
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="39" t="s">
+      <c r="A102" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="B102" s="40"/>
-      <c r="C102" s="40"/>
-      <c r="D102" s="40"/>
-      <c r="E102" s="40"/>
+      <c r="B102" s="39"/>
+      <c r="C102" s="39"/>
+      <c r="D102" s="39"/>
+      <c r="E102" s="39"/>
       <c r="F102" s="13">
         <v>4</v>
       </c>
@@ -5088,13 +5110,13 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="37" t="s">
+      <c r="A103" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="B103" s="38"/>
-      <c r="C103" s="38"/>
-      <c r="D103" s="38"/>
-      <c r="E103" s="38"/>
+      <c r="B103" s="47"/>
+      <c r="C103" s="47"/>
+      <c r="D103" s="47"/>
+      <c r="E103" s="47"/>
       <c r="F103" s="16">
         <v>10</v>
       </c>
@@ -5634,6 +5656,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A103:E103"/>
+    <mergeCell ref="A96:E96"/>
+    <mergeCell ref="A97:E97"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A102:E102"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="A7:D7"/>
@@ -5650,12 +5678,6 @@
     <mergeCell ref="A56:E56"/>
     <mergeCell ref="A57:E57"/>
     <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A103:E103"/>
-    <mergeCell ref="A96:E96"/>
-    <mergeCell ref="A97:E97"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A102:E102"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
